--- a/scraper/top_remaining_spreadsheets_states/top_remaining_LA.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_LA.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
   <si>
     <t>STATE</t>
   </si>
@@ -44,13 +44,34 @@
     <t>Triple Payout</t>
   </si>
   <si>
-    <t>2019-03-07</t>
+    <t>2019-03-12</t>
+  </si>
+  <si>
+    <t>Jester'S Deaux</t>
   </si>
   <si>
     <t>Lucky 7</t>
   </si>
   <si>
-    <t>Jester'S Deaux</t>
+    <t>$5,000 Jackpot</t>
+  </si>
+  <si>
+    <t>$50 In A Flash</t>
+  </si>
+  <si>
+    <t>5x</t>
+  </si>
+  <si>
+    <t>Mudbugs</t>
+  </si>
+  <si>
+    <t>Frenzy Doubler</t>
+  </si>
+  <si>
+    <t>Aces</t>
+  </si>
+  <si>
+    <t>Flash Of Cash</t>
   </si>
   <si>
     <t>Double Doubler</t>
@@ -59,25 +80,7 @@
     <t>2019-02-17</t>
   </si>
   <si>
-    <t>Aces</t>
-  </si>
-  <si>
-    <t>$5,000 Jackpot</t>
-  </si>
-  <si>
-    <t>Mudbugs</t>
-  </si>
-  <si>
-    <t>$50 In A Flash</t>
-  </si>
-  <si>
-    <t>5x</t>
-  </si>
-  <si>
-    <t>Frenzy Doubler</t>
-  </si>
-  <si>
-    <t>Flash Of Cash</t>
+    <t>Crazy Cash</t>
   </si>
   <si>
     <t>Double It!</t>
@@ -86,9 +89,6 @@
     <t>Holiday Red</t>
   </si>
   <si>
-    <t>Crazy Cash</t>
-  </si>
-  <si>
     <t>Crawcash</t>
   </si>
   <si>
@@ -104,48 +104,48 @@
     <t>$2.00 Games</t>
   </si>
   <si>
+    <t>Ace In The Hole</t>
+  </si>
+  <si>
+    <t>Green And Gold</t>
+  </si>
+  <si>
     <t>Pay Me!</t>
   </si>
   <si>
-    <t>Ace In The Hole</t>
+    <t>Boil It Up!</t>
+  </si>
+  <si>
+    <t>Kisses And Cash</t>
+  </si>
+  <si>
+    <t>Ca$H Clover</t>
+  </si>
+  <si>
+    <t>Make My Week</t>
   </si>
   <si>
     <t>King Of Mardi Gras</t>
   </si>
   <si>
-    <t>Green And Gold</t>
-  </si>
-  <si>
-    <t>Boil It Up!</t>
+    <t>Double Match</t>
+  </si>
+  <si>
+    <t>Lucky 13</t>
+  </si>
+  <si>
+    <t>10x</t>
   </si>
   <si>
     <t>$20,000 Jackpot</t>
   </si>
   <si>
-    <t>Ca$H Clover</t>
-  </si>
-  <si>
-    <t>Make My Week</t>
-  </si>
-  <si>
-    <t>Kisses And Cash</t>
-  </si>
-  <si>
-    <t>Double Match</t>
-  </si>
-  <si>
-    <t>Lucky 13</t>
-  </si>
-  <si>
-    <t>10x</t>
+    <t>Cash Explosion</t>
   </si>
   <si>
     <t>Holiday Green</t>
   </si>
   <si>
-    <t>Cash Explosion</t>
-  </si>
-  <si>
     <t>$20,000 Mad Money</t>
   </si>
   <si>
@@ -167,25 +167,28 @@
     <t>2019-02-22</t>
   </si>
   <si>
-    <t>Block-O Bingo</t>
-  </si>
-  <si>
-    <t>2019-02-06</t>
-  </si>
-  <si>
     <t>Bingo X 10</t>
   </si>
   <si>
     <t>$5.00 Games</t>
   </si>
   <si>
+    <t>Ca$H In</t>
+  </si>
+  <si>
     <t>Jumbo Bucks</t>
   </si>
   <si>
     <t>2019-03-04</t>
   </si>
   <si>
-    <t>Ca$H In</t>
+    <t>$100,000 Jackpot</t>
+  </si>
+  <si>
+    <t>Queen Of Hearts</t>
+  </si>
+  <si>
+    <t>Money Mayhem</t>
   </si>
   <si>
     <t>Saints</t>
@@ -194,18 +197,6 @@
     <t>Make My Month</t>
   </si>
   <si>
-    <t>$100,000 Jackpot</t>
-  </si>
-  <si>
-    <t>Queen Of Hearts</t>
-  </si>
-  <si>
-    <t>Win Big</t>
-  </si>
-  <si>
-    <t>2019-02-05</t>
-  </si>
-  <si>
     <t>$10.00 Games</t>
   </si>
   <si>
@@ -215,10 +206,10 @@
     <t>Make My Year</t>
   </si>
   <si>
+    <t>Ready Set Gold</t>
+  </si>
+  <si>
     <t>$200,000 Jackpot</t>
-  </si>
-  <si>
-    <t>Ready Set Gold</t>
   </si>
   <si>
     <t>50x</t>
@@ -563,7 +554,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -642,10 +633,10 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -662,10 +653,10 @@
         <v>11</v>
       </c>
       <c r="D5">
-        <v>1178</v>
+        <v>1181</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -682,13 +673,13 @@
         <v>12</v>
       </c>
       <c r="D6">
-        <v>1118</v>
+        <v>1189</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -699,13 +690,13 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>1175</v>
+        <v>1142</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -718,17 +709,17 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8">
-        <v>333</v>
+      <c r="C8" t="s">
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>1113</v>
+        <v>1160</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -742,10 +733,10 @@
         <v>15</v>
       </c>
       <c r="D9">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -762,10 +753,10 @@
         <v>16</v>
       </c>
       <c r="D10">
-        <v>1187</v>
+        <v>1156</v>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -782,10 +773,10 @@
         <v>17</v>
       </c>
       <c r="D11">
-        <v>1142</v>
+        <v>1175</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -802,10 +793,10 @@
         <v>18</v>
       </c>
       <c r="D12">
-        <v>1160</v>
+        <v>1172</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
@@ -822,13 +813,13 @@
         <v>19</v>
       </c>
       <c r="D13">
-        <v>1156</v>
+        <v>1118</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -838,17 +829,17 @@
       <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14">
+        <v>333</v>
+      </c>
+      <c r="D14">
+        <v>1113</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
         <v>20</v>
-      </c>
-      <c r="D14">
-        <v>1172</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -862,13 +853,13 @@
         <v>21</v>
       </c>
       <c r="D15">
-        <v>1112</v>
+        <v>1152</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -882,13 +873,13 @@
         <v>22</v>
       </c>
       <c r="D16">
-        <v>1169</v>
+        <v>1112</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -902,13 +893,13 @@
         <v>23</v>
       </c>
       <c r="D17">
-        <v>1152</v>
+        <v>1169</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -928,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -948,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -968,7 +959,7 @@
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -988,7 +979,7 @@
         <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1002,13 +993,13 @@
         <v>29</v>
       </c>
       <c r="D22">
-        <v>1123</v>
+        <v>1143</v>
       </c>
       <c r="E22">
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1022,10 +1013,10 @@
         <v>30</v>
       </c>
       <c r="D23">
-        <v>1143</v>
+        <v>1133</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
@@ -1042,13 +1033,13 @@
         <v>31</v>
       </c>
       <c r="D24">
-        <v>1179</v>
+        <v>1123</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1062,10 +1053,10 @@
         <v>32</v>
       </c>
       <c r="D25">
-        <v>1133</v>
+        <v>1188</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -1082,10 +1073,10 @@
         <v>33</v>
       </c>
       <c r="D26">
-        <v>1188</v>
+        <v>1176</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1102,10 +1093,10 @@
         <v>34</v>
       </c>
       <c r="D27">
-        <v>1190</v>
+        <v>1182</v>
       </c>
       <c r="E27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -1122,10 +1113,10 @@
         <v>35</v>
       </c>
       <c r="D28">
-        <v>1182</v>
+        <v>1126</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -1142,7 +1133,7 @@
         <v>36</v>
       </c>
       <c r="D29">
-        <v>1126</v>
+        <v>1179</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1162,10 +1153,10 @@
         <v>37</v>
       </c>
       <c r="D30">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
@@ -1182,10 +1173,10 @@
         <v>38</v>
       </c>
       <c r="D31">
-        <v>1173</v>
+        <v>1157</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
@@ -1202,7 +1193,7 @@
         <v>39</v>
       </c>
       <c r="D32">
-        <v>1157</v>
+        <v>1161</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1222,10 +1213,10 @@
         <v>40</v>
       </c>
       <c r="D33">
-        <v>1161</v>
+        <v>1190</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -1242,13 +1233,13 @@
         <v>41</v>
       </c>
       <c r="D34">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1262,13 +1253,13 @@
         <v>42</v>
       </c>
       <c r="D35">
-        <v>1165</v>
+        <v>1170</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1362,13 +1353,13 @@
         <v>50</v>
       </c>
       <c r="D40">
-        <v>1154</v>
+        <v>1166</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1376,19 +1367,19 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
         <v>52</v>
       </c>
       <c r="D41">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1396,10 +1387,10 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" t="s">
         <v>53</v>
-      </c>
-      <c r="C42" t="s">
-        <v>54</v>
       </c>
       <c r="D42">
         <v>1177</v>
@@ -1408,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1416,16 +1407,16 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D43">
-        <v>1167</v>
+        <v>1191</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F43" t="s">
         <v>9</v>
@@ -1436,19 +1427,19 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D44">
-        <v>1159</v>
+        <v>1184</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1456,19 +1447,19 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D45">
-        <v>1127</v>
+        <v>1196</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1476,19 +1467,19 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D46">
-        <v>1191</v>
+        <v>1159</v>
       </c>
       <c r="E46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1496,19 +1487,19 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D47">
-        <v>1184</v>
+        <v>1127</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1516,19 +1507,19 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C48" t="s">
         <v>61</v>
       </c>
       <c r="D48">
-        <v>1168</v>
+        <v>1155</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1536,19 +1527,19 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C49" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D49">
-        <v>1155</v>
+        <v>1128</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1556,19 +1547,19 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" t="s">
         <v>63</v>
       </c>
-      <c r="C50" t="s">
-        <v>65</v>
-      </c>
       <c r="D50">
-        <v>1128</v>
+        <v>1180</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1576,16 +1567,16 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D51">
         <v>1192</v>
       </c>
       <c r="E51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>
@@ -1596,39 +1587,19 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D52">
-        <v>1180</v>
+        <v>1163</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" t="s">
-        <v>63</v>
-      </c>
-      <c r="C53" t="s">
-        <v>68</v>
-      </c>
-      <c r="D53">
-        <v>1163</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/scraper/top_remaining_spreadsheets_states/top_remaining_LA.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_LA.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>STATE</t>
   </si>
@@ -41,181 +41,124 @@
     <t>$1.00 Games</t>
   </si>
   <si>
+    <t>Jester'S Deaux</t>
+  </si>
+  <si>
+    <t>2019-04-11</t>
+  </si>
+  <si>
     <t>Triple Payout</t>
   </si>
   <si>
-    <t>2019-03-12</t>
-  </si>
-  <si>
-    <t>Jester'S Deaux</t>
+    <t>$50 In A Flash</t>
+  </si>
+  <si>
+    <t>Frenzy Doubler</t>
+  </si>
+  <si>
+    <t>Cherry Doubler</t>
+  </si>
+  <si>
+    <t>$5,000 Jackpot</t>
+  </si>
+  <si>
+    <t>Flash Of Cash</t>
+  </si>
+  <si>
+    <t>5x</t>
+  </si>
+  <si>
+    <t>Mudbugs</t>
   </si>
   <si>
     <t>Lucky 7</t>
   </si>
   <si>
-    <t>$5,000 Jackpot</t>
-  </si>
-  <si>
-    <t>$50 In A Flash</t>
-  </si>
-  <si>
-    <t>5x</t>
-  </si>
-  <si>
-    <t>Mudbugs</t>
-  </si>
-  <si>
-    <t>Frenzy Doubler</t>
-  </si>
-  <si>
     <t>Aces</t>
   </si>
   <si>
-    <t>Flash Of Cash</t>
-  </si>
-  <si>
-    <t>Double Doubler</t>
-  </si>
-  <si>
-    <t>2019-02-17</t>
-  </si>
-  <si>
     <t>Crazy Cash</t>
   </si>
   <si>
-    <t>Double It!</t>
-  </si>
-  <si>
-    <t>Holiday Red</t>
-  </si>
-  <si>
-    <t>Crawcash</t>
-  </si>
-  <si>
-    <t>Triple It!</t>
-  </si>
-  <si>
-    <t>Make My Day</t>
-  </si>
-  <si>
-    <t>Hit $1,000!</t>
-  </si>
-  <si>
     <t>$2.00 Games</t>
   </si>
   <si>
     <t>Ace In The Hole</t>
   </si>
   <si>
+    <t>Kisses And Cash</t>
+  </si>
+  <si>
+    <t>King Of Mardi Gras</t>
+  </si>
+  <si>
     <t>Green And Gold</t>
   </si>
   <si>
-    <t>Pay Me!</t>
+    <t>10x</t>
+  </si>
+  <si>
+    <t>Double Match</t>
+  </si>
+  <si>
+    <t>Make My Week</t>
+  </si>
+  <si>
+    <t>Lucky 13</t>
+  </si>
+  <si>
+    <t>Whole Lotta $100s</t>
+  </si>
+  <si>
+    <t>Cash Explosion</t>
+  </si>
+  <si>
+    <t>Ca$H Clover</t>
+  </si>
+  <si>
+    <t>$20,000 Jackpot</t>
   </si>
   <si>
     <t>Boil It Up!</t>
   </si>
   <si>
-    <t>Kisses And Cash</t>
-  </si>
-  <si>
-    <t>Ca$H Clover</t>
-  </si>
-  <si>
-    <t>Make My Week</t>
-  </si>
-  <si>
-    <t>King Of Mardi Gras</t>
-  </si>
-  <si>
-    <t>Double Match</t>
-  </si>
-  <si>
-    <t>Lucky 13</t>
-  </si>
-  <si>
-    <t>10x</t>
-  </si>
-  <si>
-    <t>$20,000 Jackpot</t>
-  </si>
-  <si>
-    <t>Cash Explosion</t>
-  </si>
-  <si>
-    <t>Holiday Green</t>
-  </si>
-  <si>
-    <t>$20,000 Mad Money</t>
-  </si>
-  <si>
-    <t>2019-03-01</t>
-  </si>
-  <si>
     <t>$3.00 Games</t>
   </si>
   <si>
+    <t>Words For Money</t>
+  </si>
+  <si>
+    <t>Bingo Plus</t>
+  </si>
+  <si>
     <t>$30,000 Instant Bingo</t>
   </si>
   <si>
-    <t>Words For Money</t>
-  </si>
-  <si>
-    <t>Silver And Gold Crossword</t>
-  </si>
-  <si>
-    <t>2019-02-22</t>
-  </si>
-  <si>
-    <t>Bingo X 10</t>
-  </si>
-  <si>
     <t>$5.00 Games</t>
   </si>
   <si>
     <t>Ca$H In</t>
   </si>
   <si>
-    <t>Jumbo Bucks</t>
-  </si>
-  <si>
-    <t>2019-03-04</t>
+    <t>2019-04-01</t>
+  </si>
+  <si>
+    <t>Money Mayhem</t>
+  </si>
+  <si>
+    <t>Queen Of Hearts</t>
   </si>
   <si>
     <t>$100,000 Jackpot</t>
   </si>
   <si>
-    <t>Queen Of Hearts</t>
-  </si>
-  <si>
-    <t>Money Mayhem</t>
-  </si>
-  <si>
-    <t>Saints</t>
-  </si>
-  <si>
-    <t>Make My Month</t>
-  </si>
-  <si>
     <t>$10.00 Games</t>
   </si>
   <si>
-    <t>Hit $200,000</t>
-  </si>
-  <si>
-    <t>Make My Year</t>
-  </si>
-  <si>
     <t>Ready Set Gold</t>
   </si>
   <si>
     <t>$200,000 Jackpot</t>
-  </si>
-  <si>
-    <t>50x</t>
-  </si>
-  <si>
-    <t>2019-02-12</t>
   </si>
 </sst>
 </file>
@@ -554,7 +497,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,10 +536,10 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>1164</v>
+        <v>1178</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -633,10 +576,10 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>1178</v>
+        <v>1164</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -653,10 +596,10 @@
         <v>11</v>
       </c>
       <c r="D5">
-        <v>1181</v>
+        <v>1142</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -673,10 +616,10 @@
         <v>12</v>
       </c>
       <c r="D6">
-        <v>1189</v>
+        <v>1156</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -693,10 +636,10 @@
         <v>13</v>
       </c>
       <c r="D7">
-        <v>1142</v>
+        <v>1193</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -713,10 +656,10 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>1160</v>
+        <v>1189</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -733,10 +676,10 @@
         <v>15</v>
       </c>
       <c r="D9">
-        <v>1187</v>
+        <v>1172</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -753,10 +696,10 @@
         <v>16</v>
       </c>
       <c r="D10">
-        <v>1156</v>
+        <v>1160</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -773,7 +716,7 @@
         <v>17</v>
       </c>
       <c r="D11">
-        <v>1175</v>
+        <v>1187</v>
       </c>
       <c r="E11">
         <v>4</v>
@@ -793,7 +736,7 @@
         <v>18</v>
       </c>
       <c r="D12">
-        <v>1172</v>
+        <v>1181</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -813,13 +756,13 @@
         <v>19</v>
       </c>
       <c r="D13">
-        <v>1118</v>
+        <v>1175</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -829,17 +772,17 @@
       <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C14">
-        <v>333</v>
+      <c r="C14" t="s">
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>1113</v>
+        <v>1152</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -847,16 +790,16 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15">
-        <v>1152</v>
+        <v>1143</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
@@ -867,19 +810,19 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D16">
-        <v>1112</v>
+        <v>1176</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -887,19 +830,19 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D17">
-        <v>1169</v>
+        <v>1179</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -907,19 +850,19 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18">
-        <v>1122</v>
+        <v>1133</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -927,19 +870,19 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19">
-        <v>1138</v>
+        <v>1161</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -947,19 +890,19 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20">
-        <v>1125</v>
+        <v>1173</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -967,19 +910,19 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="E21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -987,16 +930,16 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
       </c>
       <c r="D22">
-        <v>1143</v>
+        <v>1157</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -1007,16 +950,16 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
       </c>
       <c r="D23">
-        <v>1133</v>
+        <v>1194</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
@@ -1027,19 +970,19 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
       </c>
       <c r="D24">
-        <v>1123</v>
+        <v>1165</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1047,16 +990,16 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
       </c>
       <c r="D25">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -1067,16 +1010,16 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
       </c>
       <c r="D26">
-        <v>1176</v>
+        <v>1190</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1087,16 +1030,16 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
       </c>
       <c r="D27">
-        <v>1182</v>
+        <v>1188</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -1107,16 +1050,16 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D28">
-        <v>1126</v>
+        <v>1186</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -1127,16 +1070,16 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D29">
-        <v>1179</v>
+        <v>1195</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
@@ -1147,16 +1090,16 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D30">
-        <v>1173</v>
+        <v>1183</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
@@ -1167,19 +1110,19 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D31">
-        <v>1157</v>
+        <v>1167</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1187,16 +1130,16 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D32">
-        <v>1161</v>
+        <v>1196</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -1207,16 +1150,16 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D33">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="E33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -1227,13 +1170,13 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D34">
-        <v>1165</v>
+        <v>1191</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1247,19 +1190,19 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D35">
-        <v>1170</v>
+        <v>1180</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1267,339 +1210,19 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D36">
-        <v>1153</v>
+        <v>1192</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37">
-        <v>1183</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38">
-        <v>1186</v>
-      </c>
-      <c r="E38">
-        <v>3</v>
-      </c>
-      <c r="F38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39">
-        <v>1185</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" t="s">
-        <v>50</v>
-      </c>
-      <c r="D40">
-        <v>1166</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41">
-        <v>1167</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" t="s">
-        <v>53</v>
-      </c>
-      <c r="D42">
-        <v>1177</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" t="s">
-        <v>55</v>
-      </c>
-      <c r="D43">
-        <v>1191</v>
-      </c>
-      <c r="E43">
-        <v>3</v>
-      </c>
-      <c r="F43" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" t="s">
-        <v>56</v>
-      </c>
-      <c r="D44">
-        <v>1184</v>
-      </c>
-      <c r="E44">
-        <v>2</v>
-      </c>
-      <c r="F44" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" t="s">
-        <v>57</v>
-      </c>
-      <c r="D45">
-        <v>1196</v>
-      </c>
-      <c r="E45">
-        <v>3</v>
-      </c>
-      <c r="F45" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46">
-        <v>1159</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" t="s">
-        <v>59</v>
-      </c>
-      <c r="D47">
-        <v>1127</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48" t="s">
-        <v>61</v>
-      </c>
-      <c r="D48">
-        <v>1155</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" t="s">
-        <v>6</v>
-      </c>
-      <c r="B49" t="s">
-        <v>60</v>
-      </c>
-      <c r="C49" t="s">
-        <v>62</v>
-      </c>
-      <c r="D49">
-        <v>1128</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" t="s">
-        <v>6</v>
-      </c>
-      <c r="B50" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50" t="s">
-        <v>63</v>
-      </c>
-      <c r="D50">
-        <v>1180</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51" t="s">
-        <v>60</v>
-      </c>
-      <c r="C51" t="s">
-        <v>64</v>
-      </c>
-      <c r="D51">
-        <v>1192</v>
-      </c>
-      <c r="E51">
-        <v>3</v>
-      </c>
-      <c r="F51" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" t="s">
-        <v>65</v>
-      </c>
-      <c r="D52">
-        <v>1163</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
